--- a/src/test/resources/TestData/TestDataMTN.xlsx
+++ b/src/test/resources/TestData/TestDataMTN.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Automation\Intellij\APIAutomationJava\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB6A40D-52BE-49B6-A0A5-4DA99E81416F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60246E8-5252-4F2E-97D1-A6A4369C79C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capture Customer Info API " sheetId="2" r:id="rId1"/>
-    <sheet name="Test Data" sheetId="3" r:id="rId2"/>
+    <sheet name="TestData" sheetId="3" r:id="rId2"/>
     <sheet name="Starter Pack Check API" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
   <si>
     <t>End</t>
   </si>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>CreatePlaylist</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>{"name": "Siva 332 Playlist","description": "New playlist description","public": false}</t>
   </si>
 </sst>
 </file>
@@ -259,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -296,6 +308,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,7 +595,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,9 +667,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
@@ -686,8 +701,8 @@
       <c r="K2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>6</v>
+      <c r="L2" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>2</v>
@@ -703,7 +718,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -749,7 +764,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -795,7 +810,7 @@
         <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -841,7 +856,7 @@
         <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -894,7 +909,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData/TestDataMTN.xlsx
+++ b/src/test/resources/TestData/TestDataMTN.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Automation\Intellij\APIAutomationJava\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ishu\Learning Framework\Automation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60246E8-5252-4F2E-97D1-A6A4369C79C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41DF31F-13CD-45F2-84D0-BDA22AA764C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Capture Customer Info API " sheetId="2" r:id="rId1"/>
-    <sheet name="TestData" sheetId="3" r:id="rId2"/>
-    <sheet name="Starter Pack Check API" sheetId="1" r:id="rId3"/>
+    <sheet name="CustomerBill API " sheetId="2" r:id="rId1"/>
+    <sheet name="Customer Bill API GET" sheetId="4" r:id="rId2"/>
+    <sheet name="TestData" sheetId="3" r:id="rId3"/>
+    <sheet name="Starter Pack Check API" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="79">
   <si>
     <t>End</t>
   </si>
@@ -181,6 +182,90 @@
   </si>
   <si>
     <t>{"name": "Siva 332 Playlist","description": "New playlist description","public": false}</t>
+  </si>
+  <si>
+    <t>ISL Integration with DCBS</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>DCBS</t>
+  </si>
+  <si>
+    <t>TMF_678-R01_TC001_Get unpaid bill at account level with valid account code by the limit value 2</t>
+  </si>
+  <si>
+    <t>TMF_678 Customer Bill Management API</t>
+  </si>
+  <si>
+    <t>TMF_678-R01_Get the list of bills for X transactions based on the selected entity level</t>
+  </si>
+  <si>
+    <t>unpaidBill</t>
+  </si>
+  <si>
+    <t>The system will provide details of transaction number and invoice metadata with the success response code "200"</t>
+  </si>
+  <si>
+    <t>TMF_678-R01_TC002_Get paid bill at service level with valid service code by the limit value 2</t>
+  </si>
+  <si>
+    <t>paidBill</t>
+  </si>
+  <si>
+    <t>Input1-queryType</t>
+  </si>
+  <si>
+    <t>Input2-offset</t>
+  </si>
+  <si>
+    <t>Input3-limit</t>
+  </si>
+  <si>
+    <t>Input4-customerType</t>
+  </si>
+  <si>
+    <t>Input5-customerId</t>
+  </si>
+  <si>
+    <t>TMF_678-R01_TC0013_Get paid bill by invalid account code data entering at account level</t>
+  </si>
+  <si>
+    <t>The system will generate the error response code details</t>
+  </si>
+  <si>
+    <t>6234567894@#$%</t>
+  </si>
+  <si>
+    <t>TMF_678-R02_Get the Outstanding balance based on AccountId,ServiceId</t>
+  </si>
+  <si>
+    <t>TMF_678-R02_TC001_Get the due bill at the account level using the OutStandingBasedOn value E</t>
+  </si>
+  <si>
+    <t>Input7</t>
+  </si>
+  <si>
+    <t>Input8</t>
+  </si>
+  <si>
+    <t>Input9</t>
+  </si>
+  <si>
+    <t>Input6-Outstandingbasedon</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>TMF_678-R02_TC002_Get the due bill at the service level using the OutStandingBasedOn value E</t>
+  </si>
+  <si>
+    <t>TMF_678-R02_TC0010_Get the due bill at account level by providing invalid data in the OutStandingBasedOn value</t>
+  </si>
+  <si>
+    <t>E@!</t>
   </si>
 </sst>
 </file>
@@ -211,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +312,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -279,16 +370,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -296,21 +381,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,31 +693,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1DFA8-B249-4BDE-98D8-3D0EA09F1599}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="24.140625" style="13" customWidth="1"/>
-    <col min="3" max="4" width="9.42578125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="13" customWidth="1"/>
-    <col min="13" max="13" width="30" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="15.7109375" style="13"/>
+    <col min="1" max="1" width="20.90625" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" customWidth="1"/>
+    <col min="8" max="8" width="7.54296875" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" customWidth="1"/>
+    <col min="10" max="10" width="6.453125" customWidth="1"/>
+    <col min="11" max="11" width="9.26953125" customWidth="1"/>
+    <col min="12" max="12" width="19.54296875" customWidth="1"/>
+    <col min="13" max="13" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -630,7 +729,7 @@
       <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -642,10 +741,10 @@
       <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="12" t="s">
         <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -667,7 +766,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -681,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>40</v>
@@ -695,25 +794,25 @@
       <c r="I2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -727,7 +826,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>40</v>
@@ -741,25 +840,25 @@
       <c r="I3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -773,7 +872,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>40</v>
@@ -787,25 +886,25 @@
       <c r="I4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -819,7 +918,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>40</v>
@@ -833,25 +932,25 @@
       <c r="I5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
@@ -865,7 +964,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>40</v>
@@ -879,23 +978,23 @@
       <c r="I6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5" t="s">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -905,6 +1004,390 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE38BA6-266D-418E-9197-EF1C24A3D9EE}">
+  <dimension ref="A1:T7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.90625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="10" customWidth="1"/>
+    <col min="3" max="4" width="9.453125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="7.54296875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="12" style="10" customWidth="1"/>
+    <col min="11" max="11" width="18.36328125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="19.54296875" style="10" customWidth="1"/>
+    <col min="13" max="13" width="30" style="10" customWidth="1"/>
+    <col min="14" max="16" width="15.7265625" style="10"/>
+    <col min="17" max="17" width="20" style="10" customWidth="1"/>
+    <col min="18" max="16384" width="15.7265625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="24" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="17" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="17">
+        <v>1</v>
+      </c>
+      <c r="N2" s="17">
+        <v>2</v>
+      </c>
+      <c r="O2" s="17">
+        <v>2</v>
+      </c>
+      <c r="P2" s="17">
+        <v>6234567894</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="17">
+        <v>1</v>
+      </c>
+      <c r="N3" s="17">
+        <v>2</v>
+      </c>
+      <c r="O3" s="17">
+        <v>1</v>
+      </c>
+      <c r="P3" s="17">
+        <v>7234567890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="17">
+        <v>1</v>
+      </c>
+      <c r="N4" s="17">
+        <v>2</v>
+      </c>
+      <c r="O4" s="17">
+        <v>1</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="14" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="14">
+        <v>2</v>
+      </c>
+      <c r="P5" s="14">
+        <v>6234567894</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="14" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" s="14">
+        <v>2</v>
+      </c>
+      <c r="P6" s="14">
+        <v>7234567890</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="14" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="14">
+        <v>2</v>
+      </c>
+      <c r="P7" s="14">
+        <v>6234567894</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P4" r:id="rId1" xr:uid="{CD2A92E6-1954-4301-8FE7-08D9897BCE28}"/>
+    <hyperlink ref="Q7" r:id="rId2" xr:uid="{0D928F40-771F-46CE-96B9-72F067FB5074}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A06FB4-B644-47A6-9101-5E19B6F2B0A3}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -912,39 +1395,38 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="13" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="13" customWidth="1"/>
-    <col min="13" max="13" width="30" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="15.7109375" style="13"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" customWidth="1"/>
+    <col min="11" max="11" width="9.26953125" customWidth="1"/>
+    <col min="12" max="12" width="19.54296875" customWidth="1"/>
+    <col min="13" max="13" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -997,7 +1479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1022,70 +1504,70 @@
       <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1093,12 +1575,12 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1106,12 +1588,12 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="15"/>
-    </row>
-    <row r="6" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1119,11 +1601,11 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="15"/>
+      <c r="I6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
